--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A581D5F-16A7-4790-94AC-22EE27034CA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F889DD3E-A9A7-40B1-AB3B-8C812615BA15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-470" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -113,9 +108,6 @@
     <t>Before Carry</t>
   </si>
   <si>
-    <t>Student Name:</t>
-  </si>
-  <si>
     <t>Student Git Address:</t>
   </si>
   <si>
@@ -333,6 +325,9 @@
   </si>
   <si>
     <t>Black and White/Sepia Scene [any color only based effect] (toggle)</t>
+  </si>
+  <si>
+    <t>Student Name: Joseph Gill</t>
   </si>
 </sst>
 </file>
@@ -926,27 +921,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="106.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="6" width="25.36328125" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" customWidth="1"/>
-    <col min="8" max="9" width="25.81640625" customWidth="1"/>
-    <col min="10" max="10" width="24.6328125" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" customWidth="1"/>
-    <col min="12" max="12" width="24.08984375" customWidth="1"/>
-    <col min="13" max="14" width="9.08984375" customWidth="1"/>
+    <col min="4" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -960,9 +953,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -977,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -998,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1009,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>27</v>
@@ -1025,12 +1018,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1068,9 +1061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1098,12 +1091,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1138,9 +1131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1169,9 +1162,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1203,9 +1196,9 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1234,9 +1227,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1268,9 +1261,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -1293,9 +1286,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1318,9 +1311,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1343,9 +1336,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -1368,9 +1361,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -1393,7 +1386,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1410,9 +1403,9 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1429,7 +1422,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1446,7 +1439,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1463,7 +1456,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1482,9 +1475,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1507,9 +1500,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -1532,9 +1525,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -1557,9 +1550,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -1582,9 +1575,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -1607,7 +1600,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1624,9 +1617,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1643,9 +1636,9 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1668,9 +1661,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1693,9 +1686,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
@@ -1718,9 +1711,9 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
@@ -1743,9 +1736,9 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -1768,9 +1761,9 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -1793,7 +1786,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1810,7 +1803,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1827,9 +1820,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1846,9 +1839,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -1871,9 +1864,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -1896,9 +1889,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1921,9 +1914,9 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -1946,9 +1939,9 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -1971,9 +1964,9 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -1996,9 +1989,9 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2021,9 +2014,9 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2046,9 +2039,9 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2071,9 +2064,9 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -2096,7 +2089,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2113,7 +2106,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2130,7 +2123,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>7</v>
       </c>
@@ -2149,9 +2142,9 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="5">
         <v>3</v>
@@ -2174,9 +2167,9 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5">
         <v>4</v>
@@ -2199,9 +2192,9 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="5">
         <v>4</v>
@@ -2224,9 +2217,9 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -2249,7 +2242,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2266,7 +2259,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
@@ -2285,9 +2278,9 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" s="5">
         <v>2</v>
@@ -2310,9 +2303,9 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="5">
         <v>2</v>
@@ -2335,9 +2328,9 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="5">
         <v>3</v>
@@ -2360,9 +2353,9 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5">
         <v>4</v>
@@ -2385,7 +2378,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2402,7 +2395,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2419,7 +2412,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
@@ -2438,9 +2431,9 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="5">
         <v>2</v>
@@ -2463,9 +2456,9 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -2488,9 +2481,9 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -2513,9 +2506,9 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -2538,9 +2531,9 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="5">
         <v>4</v>
@@ -2563,9 +2556,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="5">
         <v>4</v>
@@ -2588,7 +2581,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2605,7 +2598,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2622,7 +2615,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>4</v>
       </c>
@@ -2641,9 +2634,9 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -2666,9 +2659,9 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -2691,9 +2684,9 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="5">
         <v>2</v>
@@ -2716,9 +2709,9 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
@@ -2741,9 +2734,9 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="5">
         <v>2</v>
@@ -2766,9 +2759,9 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="5">
         <v>3</v>
@@ -2791,9 +2784,9 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="5">
         <v>3</v>
@@ -2816,7 +2809,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2833,7 +2826,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2850,9 +2843,9 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2869,9 +2862,9 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2890,9 +2883,9 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2911,9 +2904,9 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2932,9 +2925,9 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2953,9 +2946,9 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2974,9 +2967,9 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2995,7 +2988,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3012,7 +3005,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3029,9 +3022,9 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>18</v>
@@ -3053,7 +3046,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>17</v>
       </c>
@@ -3071,9 +3064,9 @@
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
@@ -3089,7 +3082,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3103,7 +3096,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3117,78 +3110,78 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
     </row>
   </sheetData>
@@ -3213,7 +3206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3283,7 +3276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3300,7 +3293,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F889DD3E-A9A7-40B1-AB3B-8C812615BA15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBBB360C-E7FF-467F-9A9B-D62400E4D45B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Before Carry</t>
   </si>
   <si>
-    <t>Student Git Address:</t>
-  </si>
-  <si>
     <t>All Graphics API Objects cleaned up in memory</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Student Name: Joseph Gill</t>
+  </si>
+  <si>
+    <t>Student Git Address: https://github.com/maximusrex17/PPIV_Repo</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -939,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -955,7 +957,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -970,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1002,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>27</v>
@@ -1018,12 +1020,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1063,7 +1065,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1091,12 +1093,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1133,7 +1135,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1229,7 +1231,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -1288,7 +1290,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1338,7 +1340,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -1363,7 +1365,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -1405,7 +1407,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1477,7 +1479,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1502,7 +1504,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -1527,7 +1529,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -1552,7 +1554,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -1577,7 +1579,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -1619,7 +1621,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1638,7 +1640,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1688,7 +1690,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
@@ -1713,7 +1715,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
@@ -1738,7 +1740,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -1763,7 +1765,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -1822,7 +1824,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1841,7 +1843,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -1866,7 +1868,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -1891,7 +1893,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1916,7 +1918,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -1941,7 +1943,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -1991,7 +1993,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2016,7 +2018,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2041,7 +2043,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2066,7 +2068,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -2144,7 +2146,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5">
         <v>3</v>
@@ -2169,7 +2171,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="5">
         <v>4</v>
@@ -2194,7 +2196,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="5">
         <v>4</v>
@@ -2219,7 +2221,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -2280,7 +2282,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="5">
         <v>2</v>
@@ -2305,7 +2307,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5">
         <v>2</v>
@@ -2330,7 +2332,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="5">
         <v>3</v>
@@ -2355,7 +2357,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="5">
         <v>4</v>
@@ -2433,7 +2435,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="5">
         <v>2</v>
@@ -2458,7 +2460,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -2483,7 +2485,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -2508,7 +2510,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -2533,7 +2535,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="5">
         <v>4</v>
@@ -2558,7 +2560,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="5">
         <v>4</v>
@@ -2636,7 +2638,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -2661,7 +2663,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -2686,7 +2688,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="5">
         <v>2</v>
@@ -2711,7 +2713,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="5">
         <v>2</v>
@@ -2761,7 +2763,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="5">
         <v>3</v>
@@ -2786,7 +2788,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="5">
         <v>3</v>
@@ -2845,7 +2847,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2864,7 +2866,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2885,7 +2887,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2906,7 +2908,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2927,7 +2929,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2948,7 +2950,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2969,7 +2971,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3024,7 +3026,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>18</v>
@@ -3066,7 +3068,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
@@ -3112,7 +3114,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3206,7 +3208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBBB360C-E7FF-467F-9A9B-D62400E4D45B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" calcOnSave="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -108,6 +113,12 @@
     <t>Before Carry</t>
   </si>
   <si>
+    <t>Student Name:</t>
+  </si>
+  <si>
+    <t>Student Git Address:</t>
+  </si>
+  <si>
     <t>All Graphics API Objects cleaned up in memory</t>
   </si>
   <si>
@@ -120,9 +131,6 @@
     <t>PROJECT SOURCE CITATIONS - Cite your sources below!</t>
   </si>
   <si>
-    <t>Geometry Instancing(multiple objects are independantly transformed) w/ 1 drawInstance related call.</t>
-  </si>
-  <si>
     <t>Demostrates dyanmic fluxuations of geometry LOD via tesselation within hardware pipeline.</t>
   </si>
   <si>
@@ -198,9 +206,6 @@
     <t>Advanced Lighting : Shadow Mapping (requires a depth buffer for your directional, point, or spot light)</t>
   </si>
   <si>
-    <t>Manually adjustable camera zoom level.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manually adjustable near- and far- clip-planes. </t>
   </si>
   <si>
@@ -246,15 +251,9 @@
     <t>Realtime scene reflections based on dynamic cube map rendertargets</t>
   </si>
   <si>
-    <t>Applying functional point light to complex mesh. (requires attenuation)</t>
-  </si>
-  <si>
     <t>Applying functional per pixel spot light to complex mesh. (requires cone attenuation)</t>
   </si>
   <si>
-    <t>Drawing indexed model loaded from file. (Index Buffer Required, File I/O Required)</t>
-  </si>
-  <si>
     <t>Applying functional directional light to complex mesh. (you may use "StoneHenge.h" from CGS day 7 for milestone 1 only)</t>
   </si>
   <si>
@@ -324,17 +323,23 @@
     <t>Black and White/Sepia Scene [any color only based effect] (toggle)</t>
   </si>
   <si>
-    <t>Student Name: Joseph Gill</t>
-  </si>
-  <si>
-    <t>Student Git Address: https://github.com/maximusrex17/PPIV_Repo</t>
+    <t>Use DrawInstanced() or DrawIndexedInstanced() to render multiple objects w/ 1 draw call.</t>
+  </si>
+  <si>
+    <t>Applying functional point light to complex mesh. (REQUIRES RANGE ATTENUATION)</t>
+  </si>
+  <si>
+    <t>Drawing indexed model loaded from file. (Index Buffer Required, File I/O Required, COMPLEX MESH REQUIRED)</t>
+  </si>
+  <si>
+    <t>Manually adjustable camera zoom level. Must be smooth and capped to a min and max value.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,7 +646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,27 +678,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,24 +712,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,14 +887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="106.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -939,9 +908,9 @@
     <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -955,9 +924,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -972,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -993,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1004,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>27</v>
@@ -1020,12 +989,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1063,9 +1032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1093,12 +1062,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1133,9 +1102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1164,9 +1133,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1198,9 +1167,9 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1229,9 +1198,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1263,9 +1232,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -1288,9 +1257,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1313,9 +1282,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1338,9 +1307,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -1363,9 +1332,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -1388,7 +1357,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1405,9 +1374,9 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1424,7 +1393,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1441,7 +1410,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1458,7 +1427,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1477,9 +1446,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1502,9 +1471,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -1527,9 +1496,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -1552,9 +1521,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -1577,9 +1546,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -1602,7 +1571,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1619,9 +1588,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1638,9 +1607,9 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1663,7 +1632,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -1688,7 +1657,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
@@ -1713,7 +1682,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
@@ -1738,7 +1707,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
@@ -1763,7 +1732,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="11" t="s">
         <v>70</v>
       </c>
@@ -1788,7 +1757,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1805,7 +1774,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="8"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1822,9 +1791,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1841,9 +1810,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -1866,9 +1835,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -1891,9 +1860,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="10" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1916,9 +1885,9 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="11" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -1941,9 +1910,9 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -1966,9 +1935,9 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -1991,9 +1960,9 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2016,9 +1985,9 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2041,9 +2010,9 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2066,7 +2035,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="23" t="s">
         <v>72</v>
       </c>
@@ -2076,7 +2045,7 @@
       <c r="C46" s="1">
         <v>3</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <v>2</v>
       </c>
       <c r="E46" s="2"/>
@@ -2091,7 +2060,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2108,7 +2077,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="8"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2125,7 +2094,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="9" t="s">
         <v>7</v>
       </c>
@@ -2144,9 +2113,9 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="5">
         <v>3</v>
@@ -2169,9 +2138,9 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5">
         <v>4</v>
@@ -2194,9 +2163,9 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="5">
         <v>4</v>
@@ -2219,17 +2188,17 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="B53" s="5">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="2"/>
@@ -2244,7 +2213,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="8"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2261,7 +2230,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
@@ -2280,9 +2249,9 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="5">
         <v>2</v>
@@ -2305,7 +2274,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="10" t="s">
         <v>65</v>
       </c>
@@ -2330,7 +2299,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="11" t="s">
         <v>71</v>
       </c>
@@ -2355,9 +2324,9 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5">
         <v>4</v>
@@ -2380,7 +2349,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="8"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2397,7 +2366,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="8"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2414,7 +2383,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
@@ -2433,9 +2402,9 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" s="5">
         <v>2</v>
@@ -2458,9 +2427,9 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="20" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -2483,9 +2452,9 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -2508,7 +2477,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="20" t="s">
         <v>59</v>
       </c>
@@ -2533,9 +2502,9 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="5">
         <v>4</v>
@@ -2558,9 +2527,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B68" s="5">
         <v>4</v>
@@ -2583,7 +2552,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="8"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2600,7 +2569,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="8"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2617,7 +2586,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
         <v>4</v>
       </c>
@@ -2636,9 +2605,9 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -2661,9 +2630,9 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -2686,9 +2655,9 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B74" s="5">
         <v>2</v>
@@ -2711,9 +2680,9 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
@@ -2736,9 +2705,9 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" s="5">
         <v>2</v>
@@ -2761,9 +2730,9 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5">
         <v>3</v>
@@ -2786,9 +2755,9 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="5">
         <v>3</v>
@@ -2811,7 +2780,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="11"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2828,7 +2797,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="11"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2845,9 +2814,9 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2864,7 +2833,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="11" t="s">
         <v>63</v>
       </c>
@@ -2885,7 +2854,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="11" t="s">
         <v>64</v>
       </c>
@@ -2906,9 +2875,9 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2927,7 +2896,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="11" t="s">
         <v>61</v>
       </c>
@@ -2948,7 +2917,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="11" t="s">
         <v>60</v>
       </c>
@@ -2969,7 +2938,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="11" t="s">
         <v>62</v>
       </c>
@@ -2990,7 +2959,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="8"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3007,7 +2976,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="8"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3024,9 +2993,9 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>18</v>
@@ -3048,7 +3017,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="11" t="s">
         <v>17</v>
       </c>
@@ -3066,9 +3035,9 @@
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
@@ -3084,7 +3053,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="11"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3098,7 +3067,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="11"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3112,82 +3081,82 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="12"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="12"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="12"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="12"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="12"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="12"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="12"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mRsjjB24uUDjTWDJbDxvocS8UrlRFoXLuUJuijAiE5wOTCPTPadLKoSyOPHPBBlxRFhisLULrANLxQtmMUQFfw==" saltValue="Di1H67vttK82/P8YsmTT3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="A529" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="G4:G89">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -3208,7 +3177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3247,23 +3216,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with capital X!" sqref="C91:E92 F4:F89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with capital X!" sqref="C91:E92 F4:F89">
       <formula1>IF(EXACT(C4,"X"),TRUE,FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D88:D89 B3:D47 B48:C89 D48:D86" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D88:D89 B3:D47 B48:C89 D48:D86">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D87" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D87">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with roman numerals I, II, or III!" sqref="E4:E89" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with roman numerals I, II, or III!" sqref="E4:E89">
       <formula1>IF(EXACT(E4,"I"),TRUE,IF(EXACT(E4,"II"),TRUE,IF(EXACT(E4,"III"),TRUE,FALSE)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3273,12 +3242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3290,12 +3259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E67174-3486-4F67-A962-884908ED76E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -113,12 +108,6 @@
     <t>Before Carry</t>
   </si>
   <si>
-    <t>Student Name:</t>
-  </si>
-  <si>
-    <t>Student Git Address:</t>
-  </si>
-  <si>
     <t>All Graphics API Objects cleaned up in memory</t>
   </si>
   <si>
@@ -333,13 +322,19 @@
   </si>
   <si>
     <t>Manually adjustable camera zoom level. Must be smooth and capped to a min and max value.</t>
+  </si>
+  <si>
+    <t>Student Git Address:  https://github.com/maximusrex17/PPIV_Repo</t>
+  </si>
+  <si>
+    <t>Student Name: Joseph Gill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,7 +641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,9 +673,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,6 +725,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,14 +918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -908,9 +939,9 @@
     <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -924,9 +955,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -941,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -962,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -973,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>27</v>
@@ -989,12 +1020,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1032,9 +1063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1062,12 +1093,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1102,9 +1133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1133,9 +1164,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1167,9 +1198,9 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1198,9 +1229,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1232,9 +1263,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -1257,9 +1288,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1282,9 +1313,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1307,9 +1338,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -1332,9 +1363,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -1357,7 +1388,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1374,9 +1405,9 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1393,7 +1424,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1410,7 +1441,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1427,7 +1458,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1446,9 +1477,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1471,9 +1502,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -1496,9 +1527,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -1521,9 +1552,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -1546,9 +1577,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -1571,7 +1602,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1588,9 +1619,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1607,9 +1638,9 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1632,9 +1663,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1657,9 +1688,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
@@ -1682,9 +1713,9 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
@@ -1707,9 +1738,9 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -1732,9 +1763,9 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -1757,7 +1788,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1774,7 +1805,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1791,9 +1822,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1810,9 +1841,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -1835,9 +1866,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -1860,9 +1891,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1885,9 +1916,9 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -1910,9 +1941,9 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -1935,9 +1966,9 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -1960,9 +1991,9 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -1985,9 +2016,9 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2010,9 +2041,9 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2035,9 +2066,9 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -2060,7 +2091,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2077,7 +2108,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2094,7 +2125,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>7</v>
       </c>
@@ -2113,9 +2144,9 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="5">
         <v>3</v>
@@ -2138,9 +2169,9 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="5">
         <v>4</v>
@@ -2163,9 +2194,9 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5">
         <v>4</v>
@@ -2188,9 +2219,9 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="5">
         <v>4</v>
@@ -2213,7 +2244,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2230,7 +2261,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
@@ -2249,9 +2280,9 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="5">
         <v>2</v>
@@ -2274,9 +2305,9 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5">
         <v>2</v>
@@ -2299,9 +2330,9 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="5">
         <v>3</v>
@@ -2324,9 +2355,9 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59" s="5">
         <v>4</v>
@@ -2349,7 +2380,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2366,7 +2397,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2383,7 +2414,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
@@ -2402,9 +2433,9 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" s="5">
         <v>2</v>
@@ -2427,9 +2458,9 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -2452,9 +2483,9 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -2477,9 +2508,9 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -2502,9 +2533,9 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="5">
         <v>4</v>
@@ -2527,9 +2558,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B68" s="5">
         <v>4</v>
@@ -2552,7 +2583,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2569,7 +2600,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2586,7 +2617,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>4</v>
       </c>
@@ -2605,9 +2636,9 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -2630,9 +2661,9 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -2655,9 +2686,9 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B74" s="5">
         <v>2</v>
@@ -2680,9 +2711,9 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
@@ -2705,9 +2736,9 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" s="5">
         <v>2</v>
@@ -2730,9 +2761,9 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B77" s="5">
         <v>3</v>
@@ -2755,9 +2786,9 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B78" s="5">
         <v>3</v>
@@ -2780,7 +2811,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2797,7 +2828,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2814,9 +2845,9 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2833,9 +2864,9 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2854,9 +2885,9 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2875,9 +2906,9 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2896,9 +2927,9 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2917,9 +2948,9 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2938,9 +2969,9 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2959,7 +2990,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2976,7 +3007,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2993,9 +3024,9 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>18</v>
@@ -3017,7 +3048,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>17</v>
       </c>
@@ -3035,9 +3066,9 @@
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
@@ -3053,7 +3084,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3067,7 +3098,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3081,78 +3112,78 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
     </row>
   </sheetData>
@@ -3177,7 +3208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3216,18 +3247,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with capital X!" sqref="C91:E92 F4:F89">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with capital X!" sqref="C91:E92 F4:F89" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>IF(EXACT(C4,"X"),TRUE,FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D88:D89 B3:D47 B48:C89 D48:D86">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D88:D89 B3:D47 B48:C89 D48:D86" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature&#10;may only range from 1 - 5." sqref="D87">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Points for any one custom feature_x000a_may only range from 1 - 5." sqref="D87" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with roman numerals I, II, or III!" sqref="E4:E89">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Can only be marked with roman numerals I, II, or III!" sqref="E4:E89" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>IF(EXACT(E4,"I"),TRUE,IF(EXACT(E4,"II"),TRUE,IF(EXACT(E4,"III"),TRUE,FALSE)))</formula1>
     </dataValidation>
   </dataValidations>
@@ -3242,12 +3273,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3259,12 +3290,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E67174-3486-4F67-A962-884908ED76E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F98529B5-BAA5-41AB-A676-1FCAB1526F0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Student Name: Joseph Gill</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1050,7 @@
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92) &gt; 20, 20, SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 20, 20, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92))</f>
@@ -1060,7 +1066,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,11 +1152,15 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>22</v>
@@ -1185,7 +1195,7 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 20, IF(K4+H4 &gt; 20, 20- H4, K4),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 20, IF(H10+I4 &gt; 20, 20- I4, H10),0)</f>
@@ -1490,11 +1500,15 @@
       <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1904,11 +1918,15 @@
       <c r="D39" s="5">
         <v>4</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1929,11 +1947,15 @@
       <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2318,11 +2340,15 @@
       <c r="D57" s="5">
         <v>2</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
+      <c r="E57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G57" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F98529B5-BAA5-41AB-A676-1FCAB1526F0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0B4C3D4-0494-4C57-ABB8-2FCEC467F7A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,7 +3234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
